--- a/IDP/Sprint Backlog.xlsx
+++ b/IDP/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARIJIT\Documents\CSDTraining\IDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E43F50D-13BB-48BE-998C-B5125228C11C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2959444-76D9-4DAF-9B9B-FDF77B8FD5B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -236,21 +236,6 @@
   </si>
   <si>
     <t>Chart is self driven as per the task burned</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sprint Backlog         &lt;Project name&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="23"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Project ID: &lt;Batch code/project id&gt;                                 C3: Protected          Controlled Copy</t>
-    </r>
   </si>
   <si>
     <t>USER STORY &amp; TASK ID</t>
@@ -576,6 +561,21 @@
   </si>
   <si>
     <t>Make unit tests for Category controller using MockMVC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint Backlog         Personal Finance Tracker
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Project ID: MDU23CSDAJ004                                 C3: Protected          Controlled Copy</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1754,7 +1754,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3690,7 +3690,7 @@
   <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
@@ -3872,7 +3872,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -3884,7 +3884,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -4381,8 +4381,8 @@
   <dimension ref="A1:AA123"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4405,7 +4405,7 @@
       <c r="A1" s="44"/>
       <c r="B1" s="44"/>
       <c r="C1" s="77" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D1" s="78"/>
       <c r="E1" s="78"/>
@@ -4434,37 +4434,37 @@
     </row>
     <row r="2" spans="1:27" ht="34.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="H2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="I2" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="J2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>43</v>
       </c>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="3" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>45</v>
       </c>
       <c r="C3" s="40">
         <v>8</v>
@@ -4520,14 +4520,14 @@
     </row>
     <row r="4" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42">
@@ -4567,14 +4567,14 @@
     </row>
     <row r="5" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>50</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42">
@@ -4614,14 +4614,14 @@
     </row>
     <row r="6" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>53</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42">
@@ -4661,14 +4661,14 @@
     </row>
     <row r="7" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42">
@@ -4708,10 +4708,10 @@
     </row>
     <row r="8" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>57</v>
       </c>
       <c r="C8" s="40">
         <v>1</v>
@@ -4743,14 +4743,14 @@
     </row>
     <row r="9" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42">
@@ -4790,14 +4790,14 @@
     </row>
     <row r="10" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="42">
@@ -4837,14 +4837,14 @@
     </row>
     <row r="11" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="42">
@@ -4884,14 +4884,14 @@
     </row>
     <row r="12" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42">
@@ -4931,10 +4931,10 @@
     </row>
     <row r="13" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>65</v>
       </c>
       <c r="C13" s="40">
         <v>5</v>
@@ -4966,14 +4966,14 @@
     </row>
     <row r="14" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42">
@@ -5013,14 +5013,14 @@
     </row>
     <row r="15" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42">
@@ -5060,14 +5060,14 @@
     </row>
     <row r="16" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="42">
@@ -5107,14 +5107,14 @@
     </row>
     <row r="17" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42">
@@ -5154,7 +5154,7 @@
     </row>
     <row r="18" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40">
@@ -5187,7 +5187,7 @@
     </row>
     <row r="19" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="20" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="21" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="22" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="23" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="40">
@@ -5392,7 +5392,7 @@
     </row>
     <row r="24" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="25" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="26" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="27" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="28" spans="1:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -8393,8 +8393,8 @@
   <dimension ref="A1:AA123"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" activeCellId="1" sqref="E27 E21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8418,7 +8418,7 @@
       <c r="A1" s="44"/>
       <c r="B1" s="44"/>
       <c r="C1" s="77" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="D1" s="78"/>
       <c r="E1" s="78"/>
@@ -8447,37 +8447,37 @@
     </row>
     <row r="2" spans="1:27" ht="34.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="H2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="I2" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="J2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>43</v>
       </c>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
@@ -8498,10 +8498,10 @@
     </row>
     <row r="3" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="40">
         <v>8</v>
@@ -8533,16 +8533,16 @@
     </row>
     <row r="4" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="42">
         <v>2</v>
@@ -8581,16 +8581,16 @@
     </row>
     <row r="5" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="42">
         <v>2</v>
@@ -8629,16 +8629,16 @@
     </row>
     <row r="6" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="42">
         <v>2</v>
@@ -8677,16 +8677,16 @@
     </row>
     <row r="7" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="42">
         <v>2</v>
@@ -8725,10 +8725,10 @@
     </row>
     <row r="8" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="40">
         <v>5</v>
@@ -8760,17 +8760,17 @@
     </row>
     <row r="9" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="42">
         <v>1</v>
@@ -8809,17 +8809,17 @@
     </row>
     <row r="10" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="42">
         <v>1</v>
@@ -8858,17 +8858,17 @@
     </row>
     <row r="11" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="42">
         <v>1</v>
@@ -8907,17 +8907,17 @@
     </row>
     <row r="12" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="42">
         <v>2</v>
@@ -8956,10 +8956,10 @@
     </row>
     <row r="13" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="40">
         <v>8</v>
@@ -8991,17 +8991,17 @@
     </row>
     <row r="14" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="42">
         <v>2</v>
@@ -9040,17 +9040,17 @@
     </row>
     <row r="15" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="42">
         <v>2</v>
@@ -9089,17 +9089,17 @@
     </row>
     <row r="16" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="42">
         <v>2</v>
@@ -9138,17 +9138,17 @@
     </row>
     <row r="17" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="42">
         <v>2</v>
@@ -9187,10 +9187,10 @@
     </row>
     <row r="18" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="40">
         <v>8</v>
@@ -9222,17 +9222,17 @@
     </row>
     <row r="19" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="42">
         <v>2</v>
@@ -9271,17 +9271,17 @@
     </row>
     <row r="20" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="42">
         <v>5</v>
@@ -9320,17 +9320,17 @@
     </row>
     <row r="21" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="42">
         <v>6</v>
@@ -9369,17 +9369,17 @@
     </row>
     <row r="22" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="42">
         <v>4</v>
@@ -9418,10 +9418,10 @@
     </row>
     <row r="23" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="40">
         <v>6</v>
@@ -9453,17 +9453,17 @@
     </row>
     <row r="24" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="42">
         <v>2</v>
@@ -9502,17 +9502,17 @@
     </row>
     <row r="25" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="42">
         <v>6</v>
@@ -9551,17 +9551,17 @@
     </row>
     <row r="26" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="42">
         <v>7</v>
@@ -9600,17 +9600,17 @@
     </row>
     <row r="27" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="42">
         <v>6</v>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="28" spans="1:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -12485,9 +12485,9 @@
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -12511,7 +12511,7 @@
       <c r="A1" s="44"/>
       <c r="B1" s="44"/>
       <c r="C1" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="78"/>
       <c r="E1" s="78"/>
@@ -12540,37 +12540,37 @@
     </row>
     <row r="2" spans="1:27" ht="34.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="H2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="I2" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="J2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>43</v>
       </c>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="3" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="40">
         <v>5</v>
@@ -12626,17 +12626,17 @@
     </row>
     <row r="4" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="42">
         <v>1</v>
@@ -12675,17 +12675,17 @@
     </row>
     <row r="5" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
@@ -12724,17 +12724,17 @@
     </row>
     <row r="6" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
@@ -12773,17 +12773,17 @@
     </row>
     <row r="7" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="42">
         <v>2</v>
@@ -12822,10 +12822,10 @@
     </row>
     <row r="8" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="40">
         <v>6</v>
@@ -12857,17 +12857,17 @@
     </row>
     <row r="9" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="42">
         <v>1</v>
@@ -12906,17 +12906,17 @@
     </row>
     <row r="10" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="42">
         <v>2</v>
@@ -12955,17 +12955,17 @@
     </row>
     <row r="11" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="42">
         <v>2</v>
@@ -13004,17 +13004,17 @@
     </row>
     <row r="12" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="42">
         <v>1</v>
@@ -13053,10 +13053,10 @@
     </row>
     <row r="13" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="40">
         <v>8</v>
@@ -13088,17 +13088,17 @@
     </row>
     <row r="14" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="42">
         <v>3</v>
@@ -13137,17 +13137,17 @@
     </row>
     <row r="15" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="42">
         <v>5</v>
@@ -13186,17 +13186,17 @@
     </row>
     <row r="16" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="42">
         <v>5</v>
@@ -13235,17 +13235,17 @@
     </row>
     <row r="17" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="42">
         <v>1</v>
@@ -13284,10 +13284,10 @@
     </row>
     <row r="18" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="40">
         <v>6</v>
@@ -13319,17 +13319,17 @@
     </row>
     <row r="19" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="42">
         <v>2</v>
@@ -13368,17 +13368,17 @@
     </row>
     <row r="20" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="42">
         <v>6</v>
@@ -13417,17 +13417,17 @@
     </row>
     <row r="21" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="42">
         <v>1</v>
@@ -13466,17 +13466,17 @@
     </row>
     <row r="22" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="42">
         <v>4</v>
@@ -13515,10 +13515,10 @@
     </row>
     <row r="23" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="40">
         <v>8</v>
@@ -13550,14 +13550,14 @@
     </row>
     <row r="24" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>79</v>
@@ -13577,7 +13577,9 @@
       <c r="J24" s="42">
         <v>0.5</v>
       </c>
-      <c r="K24" s="42"/>
+      <c r="K24" s="42">
+        <v>0.5</v>
+      </c>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -13597,14 +13599,14 @@
     </row>
     <row r="25" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="42" t="s">
         <v>79</v>
@@ -13624,7 +13626,9 @@
       <c r="J25" s="42">
         <v>1</v>
       </c>
-      <c r="K25" s="42"/>
+      <c r="K25" s="42">
+        <v>1</v>
+      </c>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -13644,14 +13648,14 @@
     </row>
     <row r="26" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="42" t="s">
         <v>79</v>
@@ -13671,7 +13675,9 @@
       <c r="J26" s="42">
         <v>1</v>
       </c>
-      <c r="K26" s="42"/>
+      <c r="K26" s="42">
+        <v>1</v>
+      </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -13691,17 +13697,17 @@
     </row>
     <row r="27" spans="1:27" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="42">
         <v>3</v>
@@ -13740,7 +13746,7 @@
     </row>
     <row r="28" spans="1:27" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -13768,7 +13774,7 @@
       </c>
       <c r="K28" s="43">
         <f>SUM(K3:K27)</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
@@ -16580,17 +16586,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -16600,6 +16606,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D6E01E278A50734B8A721F01C1B19487" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e242aab5cd6de1005018a86c864f40bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="951c5514-b77c-4532-82d5-a05f2f7d58e2" xmlns:ns3="c6f516c4-2602-422c-aa9a-755893ba4f98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aac0e3ca36e3d3717b9bb9c8f21b1ee1" ns2:_="" ns3:_="">
     <xsd:import namespace="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
@@ -16816,22 +16837,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3671C1C0-035D-4770-B72C-D62E14439CBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16848,21 +16871,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>